--- a/Reactions_ssFBA.xlsx
+++ b/Reactions_ssFBA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1119">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Enzyme class (or Reference)</t>
   </si>
   <si>
+    <t>Subgroup</t>
+  </si>
+  <si>
     <t>Flux Mean (Normalized to Glucose Uptake)</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>2.7.1.1</t>
   </si>
   <si>
+    <t>Glycolysis/Gluconeogenesis</t>
+  </si>
+  <si>
     <t>R_pgi</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>4.1.1.31</t>
   </si>
   <si>
+    <t>Anaplerotic/Glyoxylate reactions</t>
+  </si>
+  <si>
     <t>R_pdh</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>1.2.1.4; 2.3.1.12; 1.8.1.4</t>
   </si>
   <si>
+    <t>TCA Cycle</t>
+  </si>
+  <si>
     <t>R_pps</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>1.1.1.49</t>
   </si>
   <si>
+    <t>Pentose Phosphate Pathway</t>
+  </si>
+  <si>
     <t>R_zwf_reverse</t>
   </si>
   <si>
@@ -360,6 +375,9 @@
     <t>4.2.1.12</t>
   </si>
   <si>
+    <t>Entner-Doudoroff pathway</t>
+  </si>
+  <si>
     <t>R_eda</t>
   </si>
   <si>
@@ -504,6 +522,9 @@
     <t>1.9.3.1</t>
   </si>
   <si>
+    <t>Oxidative Phosphorylation</t>
+  </si>
+  <si>
     <t>R_cyo</t>
   </si>
   <si>
@@ -558,6 +579,9 @@
     <t>1.6.1.2</t>
   </si>
   <si>
+    <t>Cofactors</t>
+  </si>
+  <si>
     <t>R_pnt2</t>
   </si>
   <si>
@@ -654,6 +678,9 @@
     <t>2.3.1.8</t>
   </si>
   <si>
+    <t>Overflow Metabolism</t>
+  </si>
+  <si>
     <t>R_pta_reverse</t>
   </si>
   <si>
@@ -738,9 +765,15 @@
     <t>2.6.1.2</t>
   </si>
   <si>
+    <t>ALA, ASP, ASN biosynthesis</t>
+  </si>
+  <si>
     <t>R_alaAC_reverse</t>
   </si>
   <si>
+    <t>GLU, GLN biosynthesis</t>
+  </si>
+  <si>
     <t>R_arg</t>
   </si>
   <si>
@@ -753,6 +786,9 @@
     <t>3.5.1.2; 2.7.2.2; 2.1.3.3; 2.3.1.1; 2.7.2.8; 1.2.1.38; 2.6.1.11; 3.5.1.16; 6.3.4.5; 4.3.2.1</t>
   </si>
   <si>
+    <t>ARG, PRO biosynthesis</t>
+  </si>
+  <si>
     <t>R_aspC</t>
   </si>
   <si>
@@ -777,6 +813,9 @@
     <t>6.3.5.4</t>
   </si>
   <si>
+    <t>ALA, ASP, ASN biosynthesis/ GLU, GLN biosynthesis</t>
+  </si>
+  <si>
     <t>R_asnA</t>
   </si>
   <si>
@@ -801,6 +840,9 @@
     <t>2.3.1.30; 2.5.1.47</t>
   </si>
   <si>
+    <t>CYS, MET Biosynthesis</t>
+  </si>
+  <si>
     <t>R_gltBD</t>
   </si>
   <si>
@@ -852,6 +894,9 @@
     <t>2.1.2.1</t>
   </si>
   <si>
+    <t>GLY, SER biosynthesis</t>
+  </si>
+  <si>
     <t>R_his</t>
   </si>
   <si>
@@ -864,6 +909,9 @@
     <t>2.7.6.1; 2.4.2.17; 3.6.1.31; 3.5.4.19; 5.3.1.16; 2.4.2.-(R04558); 4.2.1.19; 2.6.1.9; 3.1.3.15; 1.1.1.23;</t>
   </si>
   <si>
+    <t>HIS biosynthesis</t>
+  </si>
+  <si>
     <t>R_ile</t>
   </si>
   <si>
@@ -876,6 +924,9 @@
     <t>4.3.1.19; 2.2.1.6; 1.1.1.86; 4.2.1.9; 2.6.1.42</t>
   </si>
   <si>
+    <t>ILE, LEU, VAL biosynthesis</t>
+  </si>
+  <si>
     <t>R_leu</t>
   </si>
   <si>
@@ -900,6 +951,9 @@
     <t>2.7.2.4; 1.2.1.11; 4.3.3.7; 1.17.1.8; 2.3.1.117; 2.6.1.17; 3.5.1.18; 5.1.1.7; 4.1.1.20</t>
   </si>
   <si>
+    <t>LYS, THR Biosynthesis</t>
+  </si>
+  <si>
     <t>R_met</t>
   </si>
   <si>
@@ -924,6 +978,9 @@
     <t>5.4.99.5; 4.2.1.51; 2.6.1.1</t>
   </si>
   <si>
+    <t>PHE, TRP, TYR Biosynthesis</t>
+  </si>
+  <si>
     <t>R_pro</t>
   </si>
   <si>
@@ -972,6 +1029,9 @@
     <t>4.1.3.27; 2.4.2.18; 2.7.6.1; 5.3.1.24; 4.1.1.48; 4.2.1.20</t>
   </si>
   <si>
+    <t>GLU, GLN biosynthesis/ PHE, TRP, TYR Biosynthesis</t>
+  </si>
+  <si>
     <t>R_tyr</t>
   </si>
   <si>
@@ -1215,6 +1275,9 @@
     <t>3.5.4.16; 3.1.3.1; 4.1.2.25</t>
   </si>
   <si>
+    <t>Folate metabolism</t>
+  </si>
+  <si>
     <t>R_fol_1</t>
   </si>
   <si>
@@ -1363,6 +1426,9 @@
   </si>
   <si>
     <t>6.3.5.5</t>
+  </si>
+  <si>
+    <t>Purine/Pyrimidine</t>
   </si>
   <si>
     <t>R_or_syn_2</t>
@@ -3574,8 +3640,8 @@
   </sheetPr>
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F153" activeCellId="0" sqref="F153:F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3585,7 +3651,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.1627906976744"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.6697674418605"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4976744186047"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.83720930232558"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6697674418605"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.0046511627907"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8325581395349"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6604651162791"/>
@@ -3594,7 +3660,7 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.83720930232558"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3607,20 +3673,23 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,16 +3697,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="6" t="n">
@@ -3660,16 +3732,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="n">
@@ -3691,16 +3766,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="n">
@@ -3721,16 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="n">
@@ -3751,16 +3832,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="n">
@@ -3781,16 +3865,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="6" t="n">
@@ -3811,16 +3898,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="6" t="n">
@@ -3841,16 +3931,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="6" t="n">
@@ -3871,16 +3964,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="6" t="n">
@@ -3901,16 +3997,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="6" t="n">
@@ -3932,16 +4031,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6" t="n">
@@ -3962,16 +4064,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6" t="n">
@@ -3992,16 +4097,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6" t="n">
@@ -4022,16 +4130,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="6" t="n">
@@ -4052,16 +4163,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="6" t="n">
@@ -4082,16 +4196,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="6" t="n">
@@ -4112,16 +4229,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6" t="n">
@@ -4142,16 +4262,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="6" t="n">
@@ -4173,16 +4296,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="6" t="n">
@@ -4203,16 +4329,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6" t="n">
@@ -4233,16 +4362,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="n">
@@ -4263,16 +4395,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="6" t="n">
@@ -4293,16 +4428,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="6" t="n">
@@ -4323,16 +4461,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="6" t="n">
@@ -4353,15 +4494,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>83</v>
       </c>
       <c r="G26" s="4"/>
@@ -4383,16 +4527,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="6" t="n">
@@ -4413,16 +4560,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="6" t="n">
@@ -4443,16 +4593,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="6" t="n">
@@ -4473,16 +4626,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="6" t="n">
@@ -4503,16 +4659,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="6" t="n">
@@ -4533,16 +4692,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="6" t="n">
@@ -4563,16 +4725,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="6" t="n">
@@ -4593,16 +4758,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="6" t="n">
@@ -4623,16 +4791,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="6" t="n">
@@ -4653,16 +4824,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6" t="n">
@@ -4683,16 +4857,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>104</v>
+      <c r="F37" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="6" t="n">
@@ -4713,16 +4890,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6" t="n">
@@ -4743,16 +4923,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6" t="n">
@@ -4773,16 +4956,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="6" t="n">
@@ -4803,16 +4989,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="6" t="n">
@@ -4833,16 +5022,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="6" t="n">
@@ -4863,16 +5055,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="6" t="n">
@@ -4893,16 +5088,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="6" t="n">
@@ -4923,16 +5121,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="6" t="n">
@@ -4953,16 +5154,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="6" t="n">
@@ -4983,16 +5187,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="6" t="n">
@@ -5013,16 +5220,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="6" t="n">
@@ -5043,16 +5253,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="6" t="n">
@@ -5073,16 +5286,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="6" t="n">
@@ -5103,16 +5319,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="6" t="n">
@@ -5133,16 +5352,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="6" t="n">
@@ -5163,16 +5385,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="6" t="n">
@@ -5193,16 +5418,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="6" t="n">
@@ -5223,15 +5451,18 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>167</v>
       </c>
       <c r="G55" s="4"/>
@@ -5253,16 +5484,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="6" t="n">
@@ -5283,15 +5517,18 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="0" t="s">
         <v>167</v>
       </c>
       <c r="G57" s="4"/>
@@ -5313,16 +5550,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="6" t="n">
@@ -5343,16 +5583,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="6" t="n">
@@ -5373,15 +5616,18 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="0" t="s">
         <v>167</v>
       </c>
       <c r="G60" s="4"/>
@@ -5403,15 +5649,18 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>167</v>
       </c>
       <c r="G61" s="4"/>
@@ -5433,16 +5682,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="6" t="n">
@@ -5463,16 +5712,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="6" t="n">
@@ -5493,16 +5745,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="6" t="n">
@@ -5523,16 +5778,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="6" t="n">
@@ -5553,16 +5811,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="6" t="n">
@@ -5583,16 +5844,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="6" t="n">
@@ -5613,16 +5877,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="6" t="n">
@@ -5643,16 +5910,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="6" t="n">
@@ -5673,16 +5943,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="6" t="n">
@@ -5703,16 +5976,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="6" t="n">
@@ -5733,16 +6009,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="6" t="n">
@@ -5763,16 +6042,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="6" t="n">
@@ -5793,16 +6075,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="6" t="n">
@@ -5823,16 +6108,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="6" t="n">
@@ -5853,16 +6141,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="6" t="n">
@@ -5883,16 +6174,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>248</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="6" t="n">
@@ -5913,16 +6207,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="6" t="n">
@@ -5943,16 +6240,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>255</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="6" t="n">
@@ -5973,16 +6273,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>247</v>
+        <v>259</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>248</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="6" t="n">
@@ -6003,16 +6306,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="6" t="n">
@@ -6033,16 +6339,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>255</v>
+        <v>268</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>248</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="6" t="n">
@@ -6063,16 +6372,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="6" t="n">
@@ -6093,16 +6405,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>263</v>
+        <v>277</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="6" t="n">
@@ -6123,16 +6438,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>267</v>
+        <v>281</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="6" t="n">
@@ -6153,16 +6471,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="6" t="n">
@@ -6183,16 +6501,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>272</v>
+        <v>286</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="6" t="n">
@@ -6213,16 +6534,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>291</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="6" t="n">
@@ -6243,16 +6567,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>280</v>
+        <v>295</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>296</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="6" t="n">
@@ -6268,21 +6595,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>284</v>
+        <v>300</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>301</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="6" t="n">
@@ -6298,21 +6628,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>288</v>
+        <v>305</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>301</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="6" t="n">
@@ -6333,16 +6666,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>292</v>
+        <v>309</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>310</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="6" t="n">
@@ -6363,16 +6699,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>296</v>
+        <v>314</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="6" t="n">
@@ -6393,16 +6732,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>300</v>
+        <v>318</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>319</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="6" t="n">
@@ -6423,16 +6765,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>304</v>
+        <v>323</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>255</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="6" t="n">
@@ -6453,16 +6798,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>308</v>
+        <v>327</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>291</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="6" t="n">
@@ -6483,16 +6831,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="6" t="n">
@@ -6508,21 +6859,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>316</v>
+        <v>335</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>336</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="6" t="n">
@@ -6543,16 +6897,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="6" t="n">
@@ -6573,16 +6930,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>324</v>
+        <v>344</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>301</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="6" t="n">
@@ -6603,16 +6963,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="6" t="n">
@@ -6633,16 +6993,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="6" t="n">
@@ -6663,16 +7023,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="6" t="n">
@@ -6693,16 +7053,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="6" t="n">
@@ -6723,16 +7083,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="6" t="n">
@@ -6753,16 +7113,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="6" t="n">
@@ -6783,16 +7143,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="6" t="n">
@@ -6813,16 +7173,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="6" t="n">
@@ -6843,16 +7203,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="6" t="n">
@@ -6873,16 +7233,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="6" t="n">
@@ -6903,16 +7263,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="6" t="n">
@@ -6933,16 +7293,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="6" t="n">
@@ -6963,16 +7323,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="6" t="n">
@@ -6993,16 +7353,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="6" t="n">
@@ -7023,16 +7383,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="6" t="n">
@@ -7053,16 +7413,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="6" t="n">
@@ -7083,16 +7443,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="6" t="n">
@@ -7113,16 +7473,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="6" t="n">
@@ -7143,16 +7503,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>397</v>
+        <v>417</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="6" t="n">
@@ -7173,16 +7536,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>401</v>
+        <v>422</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="6" t="n">
@@ -7203,16 +7569,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>405</v>
+        <v>426</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="6" t="n">
@@ -7233,16 +7602,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>409</v>
+        <v>430</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="6" t="n">
@@ -7263,16 +7635,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>413</v>
+        <v>434</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="6" t="n">
@@ -7293,16 +7668,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>417</v>
+        <v>438</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="6" t="n">
@@ -7323,16 +7701,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F125" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="6" t="n">
@@ -7353,16 +7734,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>421</v>
+        <v>442</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="6" t="n">
@@ -7383,16 +7767,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>426</v>
+        <v>447</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="6" t="n">
@@ -7413,16 +7800,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>426</v>
+        <v>447</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="6" t="n">
@@ -7443,16 +7833,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="6" t="n">
@@ -7473,16 +7866,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="6" t="n">
@@ -7503,16 +7899,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>436</v>
+        <v>457</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="6" t="n">
@@ -7533,16 +7932,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>436</v>
+        <v>457</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="6" t="n">
@@ -7563,16 +7965,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="6" t="n">
@@ -7593,16 +7995,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>447</v>
+        <v>468</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="6" t="n">
@@ -7623,16 +8028,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>451</v>
+        <v>473</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="6" t="n">
@@ -7653,16 +8061,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>455</v>
+        <v>477</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="6" t="n">
@@ -7683,16 +8094,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>459</v>
+        <v>481</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="6" t="n">
@@ -7713,16 +8127,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>463</v>
+        <v>485</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="6" t="n">
@@ -7743,16 +8160,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>463</v>
+        <v>485</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="6" t="n">
@@ -7773,16 +8193,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F140" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="6" t="n">
@@ -7803,16 +8226,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>474</v>
+        <v>496</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="6" t="n">
@@ -7833,16 +8259,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>478</v>
+        <v>500</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="6" t="n">
@@ -7863,16 +8292,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>482</v>
+        <v>504</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="6" t="n">
@@ -7893,16 +8325,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>486</v>
+        <v>508</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="6" t="n">
@@ -7923,16 +8358,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>490</v>
+        <v>512</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="6" t="n">
@@ -7953,16 +8391,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>494</v>
+        <v>516</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="6" t="n">
@@ -7983,16 +8424,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>498</v>
+        <v>520</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="6" t="n">
@@ -8013,16 +8457,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>502</v>
+        <v>524</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="6" t="n">
@@ -8043,16 +8490,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>506</v>
+        <v>528</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="6" t="n">
@@ -8073,16 +8523,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>510</v>
+        <v>532</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="6" t="n">
@@ -8103,16 +8556,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>514</v>
+        <v>536</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="6" t="n">
@@ -8133,16 +8589,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>518</v>
+        <v>540</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="6" t="n">
@@ -8163,16 +8622,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="6" t="n">
@@ -8193,16 +8652,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="6" t="n">
@@ -8223,16 +8682,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="6" t="n">
@@ -8253,16 +8712,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="6" t="n">
@@ -8283,16 +8742,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="6" t="n">
@@ -8313,16 +8772,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="6" t="n">
@@ -8343,16 +8802,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="6" t="n">
@@ -8373,16 +8832,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="6" t="n">
@@ -8403,16 +8862,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="6" t="n">
@@ -8433,16 +8892,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="6" t="n">
@@ -8463,16 +8922,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="6" t="n">
@@ -8493,16 +8952,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="6" t="n">
@@ -8523,16 +8982,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="6" t="n">
@@ -8553,16 +9012,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="6" t="n">
@@ -8583,16 +9042,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="6" t="n">
@@ -8613,13 +9072,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="E168" s="5" t="n">
         <v>2</v>
@@ -8643,13 +9102,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="E169" s="5" t="n">
         <v>2</v>
@@ -8673,13 +9132,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="E170" s="5" t="n">
         <v>2</v>
@@ -8703,13 +9162,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="E171" s="5" t="n">
         <v>2</v>
@@ -8733,13 +9192,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="E172" s="5" t="n">
         <v>2</v>
@@ -8763,13 +9222,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="E173" s="5" t="n">
         <v>2</v>
@@ -8793,13 +9252,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="E174" s="5" t="n">
         <v>2</v>
@@ -8823,13 +9282,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="E175" s="5" t="n">
         <v>2</v>
@@ -8853,13 +9312,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="E176" s="5" t="n">
         <v>2</v>
@@ -8883,13 +9342,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="E177" s="5" t="n">
         <v>2</v>
@@ -8913,13 +9372,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="E178" s="5" t="n">
         <v>2</v>
@@ -8943,13 +9402,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="E179" s="5" t="n">
         <v>2</v>
@@ -8973,13 +9432,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="E180" s="5" t="n">
         <v>2</v>
@@ -9003,13 +9462,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="E181" s="5" t="n">
         <v>2</v>
@@ -9033,13 +9492,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E182" s="5" t="n">
         <v>2</v>
@@ -9063,13 +9522,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="E183" s="5" t="n">
         <v>2</v>
@@ -9093,13 +9552,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="E184" s="5" t="n">
         <v>2</v>
@@ -9123,13 +9582,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="E185" s="5" t="n">
         <v>2</v>
@@ -9153,13 +9612,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="E186" s="5" t="n">
         <v>2</v>
@@ -9183,13 +9642,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="E187" s="5" t="n">
         <v>2</v>
@@ -9213,13 +9672,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="E188" s="5" t="n">
         <v>2</v>
@@ -9243,13 +9702,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="E189" s="5" t="n">
         <v>2</v>
@@ -9273,13 +9732,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="E190" s="5" t="n">
         <v>2</v>
@@ -9303,13 +9762,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="E191" s="5" t="n">
         <v>2</v>
@@ -9333,13 +9792,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="E192" s="5" t="n">
         <v>2</v>
@@ -9363,16 +9822,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="6" t="n">
@@ -9393,16 +9852,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="6" t="n">
@@ -9423,16 +9882,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="6" t="n">
@@ -9453,16 +9912,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="6" t="n">
@@ -9483,16 +9942,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="6" t="n">
@@ -9513,16 +9972,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="6" t="n">
@@ -9543,16 +10002,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="6" t="n">
@@ -9573,16 +10032,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="6" t="n">
@@ -9603,16 +10062,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="6" t="n">
@@ -9633,16 +10092,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="6" t="n">
@@ -9663,16 +10122,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="6" t="n">
@@ -9693,16 +10152,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="6" t="n">
@@ -9723,16 +10182,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="6" t="n">
@@ -9753,16 +10212,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="6" t="n">
@@ -9783,16 +10242,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E207" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>646</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="6" t="n">
@@ -9813,16 +10272,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="6" t="n">
@@ -9843,16 +10302,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="6" t="n">
@@ -9873,16 +10332,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="6" t="n">
@@ -9903,16 +10362,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="6" t="n">
@@ -9933,16 +10392,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="6" t="n">
@@ -9963,16 +10422,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="6" t="n">
@@ -9993,16 +10452,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="6" t="n">
@@ -10023,16 +10482,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="6" t="n">
@@ -10053,16 +10512,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="6" t="n">
@@ -10083,16 +10542,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="6" t="n">
@@ -10113,16 +10572,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="6" t="n">
@@ -10143,16 +10602,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="6" t="n">
@@ -10173,16 +10632,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="6" t="n">
@@ -10203,16 +10662,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="6" t="n">
@@ -10233,16 +10692,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="6" t="n">
@@ -10263,16 +10722,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="6" t="n">
@@ -10293,16 +10752,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="6" t="n">
@@ -10323,16 +10782,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="6" t="n">
@@ -10353,16 +10812,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="6" t="n">
@@ -10383,16 +10842,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="6" t="n">
@@ -10413,16 +10872,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="6" t="n">
@@ -10443,16 +10902,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="6" t="n">
@@ -10473,16 +10932,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="6" t="n">
@@ -10503,16 +10962,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="6" t="n">
@@ -10533,16 +10992,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="6" t="n">
@@ -10563,16 +11022,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="6" t="n">
@@ -10593,16 +11052,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="6" t="n">
@@ -10623,16 +11082,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="6" t="n">
@@ -10653,16 +11112,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="6" t="n">
@@ -10683,16 +11142,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="6" t="n">
@@ -10713,16 +11172,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="6" t="n">
@@ -10743,16 +11202,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="6" t="n">
@@ -10773,16 +11232,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="6" t="n">
@@ -10803,16 +11262,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="6" t="n">
@@ -10833,16 +11292,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="6" t="n">
@@ -10863,16 +11322,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="6" t="n">
@@ -10893,16 +11352,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="6" t="n">
@@ -10923,16 +11382,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="6" t="n">
@@ -10953,16 +11412,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="6" t="n">
@@ -10983,16 +11442,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="6" t="n">
@@ -11013,16 +11472,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="6" t="n">
@@ -11043,16 +11502,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="6" t="n">
@@ -11073,16 +11532,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="6" t="n">
@@ -11103,16 +11562,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="6" t="n">
@@ -11133,16 +11592,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="6" t="n">
@@ -11163,16 +11622,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="6" t="n">
@@ -11193,16 +11652,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="6" t="n">
@@ -11223,16 +11682,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="6" t="n">
@@ -11253,16 +11712,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="6" t="n">
@@ -11283,16 +11742,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="6" t="n">
@@ -11313,16 +11772,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="6" t="n">
@@ -11343,16 +11802,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="6" t="n">
@@ -11373,16 +11832,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="6" t="n">
@@ -11403,16 +11862,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="6" t="n">
@@ -11433,16 +11892,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="6" t="n">
@@ -11463,16 +11922,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="6" t="n">
@@ -11493,16 +11952,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="6" t="n">
@@ -11530,7 +11989,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="10" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="6"/>
@@ -11543,10 +12002,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="G267" s="4"/>
       <c r="H267" s="6"/>
@@ -11558,10 +12017,10 @@
         <v>2</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="6"/>
@@ -11587,8 +12046,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="F153:F154 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11606,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -11620,10 +12079,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -11635,13 +12094,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -11652,13 +12111,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -11669,13 +12128,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -11686,13 +12145,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -11703,13 +12162,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -11720,13 +12179,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -11737,13 +12196,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -11754,13 +12213,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -11771,13 +12230,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -11788,13 +12247,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -11805,13 +12264,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -11822,13 +12281,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -11839,13 +12298,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -11856,13 +12315,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -11873,13 +12332,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -11890,13 +12349,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -11907,13 +12366,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -11924,13 +12383,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -11941,13 +12400,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -11958,13 +12417,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -11975,13 +12434,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -11992,10 +12451,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -12007,13 +12466,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -12024,13 +12483,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -12041,10 +12500,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -12056,13 +12515,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -12073,10 +12532,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -12088,13 +12547,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -12105,10 +12564,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -12120,13 +12579,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -12137,13 +12596,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -12154,13 +12613,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -12171,13 +12630,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -12188,13 +12647,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -12205,13 +12664,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -12222,13 +12681,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -12239,13 +12698,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -12256,13 +12715,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -12273,13 +12732,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -12290,13 +12749,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -12307,13 +12766,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -12324,10 +12783,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -12339,13 +12798,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -12356,13 +12815,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -12373,13 +12832,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -12390,13 +12849,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -12407,13 +12866,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -12424,13 +12883,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -12441,13 +12900,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -12458,13 +12917,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -12475,13 +12934,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -12492,13 +12951,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -12509,13 +12968,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -12526,13 +12985,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -12543,13 +13002,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -12560,13 +13019,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -12577,13 +13036,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>901</v>
+        <v>923</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>902</v>
+        <v>924</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -12594,13 +13053,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -12611,13 +13070,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>908</v>
+        <v>930</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -12628,13 +13087,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -12645,10 +13104,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -12660,13 +13119,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -12677,10 +13136,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -12692,13 +13151,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -12709,13 +13168,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -12726,10 +13185,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>923</v>
+        <v>945</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -12741,13 +13200,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -12758,13 +13217,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -12775,13 +13234,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -12792,13 +13251,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -12809,13 +13268,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -12826,13 +13285,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>936</v>
+        <v>958</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -12843,13 +13302,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -12860,13 +13319,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -12877,13 +13336,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -12894,10 +13353,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -12909,13 +13368,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -12926,13 +13385,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -12943,10 +13402,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -12958,13 +13417,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -12975,13 +13434,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -12992,13 +13451,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -13009,13 +13468,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -13026,10 +13485,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -13041,13 +13500,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -13058,10 +13517,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -13073,13 +13532,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -13090,13 +13549,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -13107,10 +13566,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -13122,13 +13581,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -13139,13 +13598,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -13156,13 +13615,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>976</v>
+        <v>998</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>977</v>
+        <v>999</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>978</v>
+        <v>1000</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -13173,13 +13632,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>980</v>
+        <v>1002</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -13190,13 +13649,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -13207,13 +13666,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>986</v>
+        <v>1008</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>987</v>
+        <v>1009</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -13224,13 +13683,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>989</v>
+        <v>1011</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>990</v>
+        <v>1012</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -13241,13 +13700,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>991</v>
+        <v>1013</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -13258,13 +13717,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>996</v>
+        <v>1018</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -13275,13 +13734,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>997</v>
+        <v>1019</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -13292,13 +13751,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>999</v>
+        <v>1021</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -13309,13 +13768,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>1001</v>
+        <v>1023</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -13326,13 +13785,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -13343,13 +13802,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>1006</v>
+        <v>1028</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1007</v>
+        <v>1029</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>1008</v>
+        <v>1030</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -13360,13 +13819,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1011</v>
+        <v>1033</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -13377,13 +13836,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -13394,10 +13853,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -13409,13 +13868,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -13426,13 +13885,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -13443,13 +13902,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -13460,10 +13919,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -13475,13 +13934,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -13492,13 +13951,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -13509,13 +13968,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -13526,13 +13985,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>1034</v>
+        <v>1056</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -13543,13 +14002,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -13560,13 +14019,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -13577,13 +14036,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -13594,13 +14053,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1042</v>
+        <v>1064</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>1043</v>
+        <v>1065</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -13611,13 +14070,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>1044</v>
+        <v>1066</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>1045</v>
+        <v>1067</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -13628,13 +14087,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>1046</v>
+        <v>1068</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>1047</v>
+        <v>1069</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -13645,10 +14104,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>1048</v>
+        <v>1070</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>1049</v>
+        <v>1071</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -13660,13 +14119,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1050</v>
+        <v>1072</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -13677,13 +14136,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>1052</v>
+        <v>1074</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>1053</v>
+        <v>1075</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>1054</v>
+        <v>1076</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -13694,13 +14153,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>1055</v>
+        <v>1077</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>1056</v>
+        <v>1078</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>1057</v>
+        <v>1079</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -13711,13 +14170,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1058</v>
+        <v>1080</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>1059</v>
+        <v>1081</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -13728,10 +14187,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>1060</v>
+        <v>1082</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>1061</v>
+        <v>1083</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -13743,13 +14202,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>1062</v>
+        <v>1084</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>1063</v>
+        <v>1085</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -13760,10 +14219,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>1064</v>
+        <v>1086</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>1065</v>
+        <v>1087</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -13775,13 +14234,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>1067</v>
+        <v>1089</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -13792,10 +14251,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>1068</v>
+        <v>1090</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>1069</v>
+        <v>1091</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
@@ -13807,13 +14266,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>1070</v>
+        <v>1092</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>1072</v>
+        <v>1094</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -13824,13 +14283,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -13841,10 +14300,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -13856,13 +14315,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -13873,13 +14332,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>1082</v>
+        <v>1104</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -13890,10 +14349,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>1083</v>
+        <v>1105</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>1084</v>
+        <v>1106</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
@@ -13905,13 +14364,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>1085</v>
+        <v>1107</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>1086</v>
+        <v>1108</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -13922,13 +14381,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>1087</v>
+        <v>1109</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -13939,10 +14398,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>1088</v>
+        <v>1110</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -13954,10 +14413,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>1089</v>
+        <v>1111</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>1090</v>
+        <v>1112</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -13969,10 +14428,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>1091</v>
+        <v>1113</v>
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
@@ -13984,10 +14443,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>1092</v>
+        <v>1114</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
@@ -13999,10 +14458,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>1094</v>
+        <v>1116</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
@@ -14014,10 +14473,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -14029,13 +14488,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>1095</v>
+        <v>1117</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1096</v>
+        <v>1118</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
